--- a/payments.xlsx
+++ b/payments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4191 - 4191 Adiantamentos de clientes - Moeda Nacional - C</t>
+          <t>4112 - 4112 Clientes C/C - Moeda Estrangeira - C</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>4191 - 4191 Adiantamentos de clientes - Moeda Nacional - C</t>
+          <t>111 - 111 Cash - C</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Adiantamento</t>
+          <t>Numerário</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1086,7 +1086,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ACC-PAY-2023-00152</t>
+          <t>ACC-PAY-2024-00008</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1155,9 +1155,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="inlineStr"/>
+        <v>3000</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>ACC-SINV-2023-00176-1</t>
+        </is>
+      </c>
       <c r="S9" t="n">
         <v>3000</v>
       </c>
@@ -1165,7 +1169,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ACC-PAY-2023-00285</t>
+          <t>ACC-PAY-2024-00009</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1180,7 +1184,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023-12-10</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1200,7 +1204,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>42111 - Gateway Technology - C</t>
+          <t>4211-4211 Fornecedores C/C - Moeda Nacional - C</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1209,13 +1213,13 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1200</v>
+        <v>50.6</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>1200</v>
+        <v>50.6</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -1223,26 +1227,26 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>DataProxy Technology</t>
+          <t>Vodacom</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Cheque</t>
+          <t>Numerário</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>1200</v>
+        <v>50.6</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>1200</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ACC-PAY-2024-00008</t>
+          <t>ACC-PAY-2024-00010</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1257,17 +1261,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Supermercado Guava</t>
+          <t>CMCM Conselho Municipal da Cidade de Maputo</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1310 - Debtors - SG</t>
+          <t>Debtors - CMCM</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1277,7 +1281,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1110 - Cash - SG</t>
+          <t>Cash - CMCM</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1286,46 +1290,42 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Jo Jorge</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Numerário</t>
-        </is>
-      </c>
+          <t>Gentil</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>ACC-SINV-2023-00176-1</t>
+          <t>ACC-SINV-2024-00019</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ACC-PAY-2024-00009</t>
+          <t>ACC-PAY-2024-00011</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Pay</t>
+          <t>Receive</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ClinicaMS</t>
+          <t>CMCM Conselho Municipal da Cidade de Maputo</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>111 - 111 Cash - C</t>
+          <t>Debtors - CMCM</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>4211-4211 Fornecedores C/C - Moeda Nacional - C</t>
+          <t>Cash - CMCM</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1369,34 +1369,202 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>50.6</v>
+        <v>2000</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>50.6</v>
+        <v>2000</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>2</v>
+      </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Vodacom</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
+          <t>Keynes Nhabique</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="n">
+        <v>2000</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>ACC-SINV-2024-00018</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ACC-PAY-2024-00012</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ACC-PAY-.YYYY.-</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Receive</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>DataProxy Technology</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Debtors - DT</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>MZN</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Cash - DT</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>MZN</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Gentil</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>Numerário</t>
         </is>
       </c>
-      <c r="Q12" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
-        <v>50.6</v>
+      <c r="Q13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>ACC-SINV-2024-00011</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ACC-PAY-2024-00013</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ACC-PAY-.YYYY.-</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Receive</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>CMCM Conselho Municipal da Cidade de Maputo</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Debtors - CMCM</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>MZN</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Cash - CMCM</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>MZN</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Joao  Jorge</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Numerário</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>1500</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>ACC-SINV-2024-00017</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
